--- a/data/trans_bre/P12_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 9,88</t>
+          <t>1,69; 10,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 12,51</t>
+          <t>3,25; 12,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,15</t>
+          <t>-0,59; 7,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 13,24</t>
+          <t>-0,1; 13,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 110,39</t>
+          <t>12,72; 119,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,81; 159,5</t>
+          <t>24,56; 169,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 134,05</t>
+          <t>-6,57; 136,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 399,34</t>
+          <t>-6,27; 453,64</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 8,77</t>
+          <t>0,89; 8,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 10,79</t>
+          <t>2,1; 11,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 6,39</t>
+          <t>-0,66; 6,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 8,12</t>
+          <t>-1,98; 7,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 68,3</t>
+          <t>5,54; 69,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 91,61</t>
+          <t>11,45; 92,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 88,45</t>
+          <t>-6,26; 84,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 147,97</t>
+          <t>-19,1; 119,52</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 8,27</t>
+          <t>-0,7; 8,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 12,31</t>
+          <t>3,61; 12,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,3</t>
+          <t>-0,44; 6,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 8,72</t>
+          <t>0,84; 8,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 52,93</t>
+          <t>-3,98; 53,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,35; 83,23</t>
+          <t>19,11; 84,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 82,47</t>
+          <t>-5,43; 83,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 90,3</t>
+          <t>4,53; 91,72</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 9,62</t>
+          <t>-0,41; 9,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,89; 17,55</t>
+          <t>8,55; 18,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 5,44</t>
+          <t>-2,5; 5,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 9,47</t>
+          <t>1,68; 9,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 63,63</t>
+          <t>-2,14; 61,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,09; 130,19</t>
+          <t>46,92; 144,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 41,02</t>
+          <t>-15,78; 41,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 85,72</t>
+          <t>10,37; 86,01</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 11,41</t>
+          <t>-0,51; 11,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 14,67</t>
+          <t>3,33; 14,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 14,04</t>
+          <t>4,18; 14,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 9,33</t>
+          <t>1,49; 9,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 61,1</t>
+          <t>-1,8; 67,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,7; 86,32</t>
+          <t>14,44; 82,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,1; 133,01</t>
+          <t>28,24; 142,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 58,81</t>
+          <t>6,94; 59,61</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 10,95</t>
+          <t>0,47; 10,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 18,0</t>
+          <t>8,98; 18,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 13,34</t>
+          <t>4,25; 12,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,47; 34,41</t>
+          <t>6,92; 34,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 59,77</t>
+          <t>1,85; 54,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,18; 108,93</t>
+          <t>40,62; 115,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,18; 92,72</t>
+          <t>23,43; 91,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,93; 206,55</t>
+          <t>37,14; 208,18</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,36</t>
+          <t>3,6; 7,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,25</t>
+          <t>8,16; 12,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,78</t>
+          <t>3,41; 6,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,26; 15,94</t>
+          <t>5,24; 16,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,08; 46,52</t>
+          <t>20,1; 46,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,0; 82,55</t>
+          <t>49,14; 82,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,82; 61,81</t>
+          <t>27,27; 60,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,39; 117,83</t>
+          <t>36,97; 124,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 10,41</t>
+          <t>1,25; 9,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 12,97</t>
+          <t>3,17; 12,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 7,04</t>
+          <t>-0,68; 7,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,72; 119,82</t>
+          <t>10,33; 112,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,56; 169,38</t>
+          <t>25,89; 161,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 136,28</t>
+          <t>-8,37; 121,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,76</t>
+          <t>0,75; 8,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 11,09</t>
+          <t>2,32; 10,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 6,17</t>
+          <t>-1,06; 6,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 69,23</t>
+          <t>5,02; 70,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,45; 92,06</t>
+          <t>14,65; 94,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 84,21</t>
+          <t>-11,28; 87,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 8,23</t>
+          <t>-0,35; 8,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 12,42</t>
+          <t>3,52; 12,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 6,54</t>
+          <t>-0,59; 6,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 53,4</t>
+          <t>-2,08; 49,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,11; 84,52</t>
+          <t>17,78; 82,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 83,44</t>
+          <t>-5,35; 87,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 9,71</t>
+          <t>-0,17; 9,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,55; 18,76</t>
+          <t>8,37; 18,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 5,27</t>
+          <t>-2,72; 5,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 61,03</t>
+          <t>-0,72; 65,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,92; 144,72</t>
+          <t>47,01; 145,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 41,84</t>
+          <t>-16,73; 45,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 11,86</t>
+          <t>-0,79; 11,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 14,34</t>
+          <t>2,61; 14,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 14,24</t>
+          <t>4,38; 14,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 67,46</t>
+          <t>-3,04; 65,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,44; 82,21</t>
+          <t>11,56; 83,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,24; 142,11</t>
+          <t>29,54; 146,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 10,15</t>
+          <t>0,88; 10,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,98; 18,49</t>
+          <t>8,46; 18,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,25; 12,76</t>
+          <t>4,15; 12,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 54,7</t>
+          <t>3,72; 55,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,62; 115,35</t>
+          <t>38,51; 114,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,43; 91,53</t>
+          <t>21,57; 91,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,44</t>
+          <t>3,44; 7,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,19</t>
+          <t>8,04; 12,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,7</t>
+          <t>3,24; 6,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,1; 46,32</t>
+          <t>19,23; 45,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,14; 82,62</t>
+          <t>46,86; 81,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,27; 60,89</t>
+          <t>25,77; 61,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P12_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces</t>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 9,69</t>
+          <t>1,29; 9,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 12,79</t>
+          <t>3,3; 12,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 7,1</t>
+          <t>-0,86; 7,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 13,21</t>
+          <t>-0,37; 13,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,33; 112,2</t>
+          <t>7,24; 110,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,89; 161,21</t>
+          <t>25,81; 159,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 121,97</t>
+          <t>-9,55; 134,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 453,64</t>
+          <t>-9,83; 399,34</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 8,93</t>
+          <t>0,38; 8,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 10,99</t>
+          <t>1,95; 10,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 6,61</t>
+          <t>-0,67; 6,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,53</t>
+          <t>-1,11; 8,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 70,23</t>
+          <t>1,69; 68,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,65; 94,79</t>
+          <t>12,34; 91,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 87,7</t>
+          <t>-5,99; 88,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 119,52</t>
+          <t>-9,75; 147,97</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 8,09</t>
+          <t>-0,41; 8,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,55</t>
+          <t>3,79; 12,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 6,59</t>
+          <t>-0,61; 6,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,49</t>
+          <t>0,8; 8,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 49,64</t>
+          <t>-1,9; 52,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,78; 82,32</t>
+          <t>19,35; 83,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 87,46</t>
+          <t>-5,27; 82,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 91,72</t>
+          <t>4,53; 90,3</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 9,79</t>
+          <t>-0,12; 9,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 18,78</t>
+          <t>7,89; 17,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 5,53</t>
+          <t>-2,75; 5,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,54</t>
+          <t>1,36; 9,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 65,59</t>
+          <t>-0,09; 63,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,01; 145,18</t>
+          <t>43,09; 130,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 45,48</t>
+          <t>-17,02; 41,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,37; 86,01</t>
+          <t>7,57; 85,72</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 11,77</t>
+          <t>-0,69; 11,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 14,69</t>
+          <t>2,67; 14,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 14,6</t>
+          <t>4,09; 14,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 9,24</t>
+          <t>0,91; 9,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 65,04</t>
+          <t>-3,09; 61,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,56; 83,65</t>
+          <t>11,7; 86,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,54; 146,98</t>
+          <t>27,1; 133,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 59,61</t>
+          <t>4,5; 58,81</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,88; 10,37</t>
+          <t>0,78; 10,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,46; 18,38</t>
+          <t>8,52; 18,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,15; 12,88</t>
+          <t>4,63; 13,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 34,47</t>
+          <t>6,47; 34,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 55,61</t>
+          <t>2,98; 59,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,51; 114,73</t>
+          <t>38,18; 108,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,57; 91,79</t>
+          <t>25,18; 92,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,14; 208,18</t>
+          <t>33,93; 206,55</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,33</t>
+          <t>3,38; 7,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,23</t>
+          <t>8,25; 12,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,7</t>
+          <t>3,24; 6,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,24; 16,14</t>
+          <t>5,26; 15,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,23; 45,72</t>
+          <t>19,08; 46,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,86; 81,38</t>
+          <t>49,0; 82,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,77; 61,59</t>
+          <t>25,82; 61,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,97; 124,92</t>
+          <t>36,39; 117,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>107,59%</t>
+          <t>121,46%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 13,24</t>
+          <t>0,26; 13,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 399,34</t>
+          <t>-8,39; 439,78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>15,64%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 8,12</t>
+          <t>-3,66; 6,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 147,97</t>
+          <t>-30,77; 99,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>43,33%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 8,72</t>
+          <t>1,11; 8,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 90,3</t>
+          <t>7,71; 94,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>75,57%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 9,47</t>
+          <t>2,11; 15,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 85,72</t>
+          <t>13,83; 290,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>28,82%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 9,33</t>
+          <t>1,11; 9,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 58,81</t>
+          <t>5,13; 59,55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,55</t>
+          <t>12,9</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,76</t>
+          <t>32,04</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>57,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,43%</t>
+          <t>81,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>54,01%</t>
+          <t>52,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>206,89%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 10,95</t>
+          <t>3,7; 16,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 18,0</t>
+          <t>5,96; 19,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 13,34</t>
+          <t>1,87; 13,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,47; 34,41</t>
+          <t>4,18; 66,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 59,77</t>
+          <t>17,39; 111,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,18; 108,93</t>
+          <t>30,75; 154,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,18; 92,72</t>
+          <t>9,39; 112,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,93; 206,55</t>
+          <t>25,34; 480,05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,12</t>
+          <t>13,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>64,14%</t>
+          <t>57,02%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>42,84%</t>
+          <t>49,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>60,31%</t>
+          <t>41,01%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-8,17; 7,36</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 21,34</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 15,64</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 13,62</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-28,51; 38,18</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20,9; 118,52</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10,62; 99,67</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15,18; 75,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5,44</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,12</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,99</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10,87</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>32,16%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>64,14%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>42,84%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>86,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>3,38; 7,36</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>8,25; 12,25</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>3,24; 6,78</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,26; 15,94</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 24,1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>19,08; 46,52</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>49,0; 82,55</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>25,82; 61,81</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>36,39; 117,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>41,75; 215,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P12_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 9,88</t>
+          <t>1,22; 10,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 12,51</t>
+          <t>3,54; 12,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,15</t>
+          <t>-0,85; 7,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 13,85</t>
+          <t>0,93; 13,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 110,39</t>
+          <t>9,08; 117,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,81; 159,5</t>
+          <t>27,68; 155,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 134,05</t>
+          <t>-10,54; 130,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 439,78</t>
+          <t>-3,35; 421,81</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 8,77</t>
+          <t>0,64; 9,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 10,79</t>
+          <t>2,15; 10,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 6,39</t>
+          <t>-0,9; 6,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 6,41</t>
+          <t>-4,58; 5,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 68,3</t>
+          <t>3,45; 73,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 91,61</t>
+          <t>13,27; 90,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 88,45</t>
+          <t>-7,9; 86,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 99,09</t>
+          <t>-36,95; 92,07</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 8,27</t>
+          <t>-0,85; 8,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 12,31</t>
+          <t>3,42; 12,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,3</t>
+          <t>-0,54; 6,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 8,79</t>
+          <t>0,94; 8,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 52,93</t>
+          <t>-4,63; 52,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,35; 83,23</t>
+          <t>17,48; 85,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 82,47</t>
+          <t>-5,35; 84,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 94,6</t>
+          <t>5,45; 92,87</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 9,62</t>
+          <t>-0,48; 10,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,89; 17,55</t>
+          <t>8,73; 18,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 5,44</t>
+          <t>-2,7; 5,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 15,34</t>
+          <t>2,76; 14,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 63,63</t>
+          <t>-2,49; 66,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,09; 130,19</t>
+          <t>48,68; 141,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 41,02</t>
+          <t>-16,64; 44,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 290,1</t>
+          <t>17,75; 319,73</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 11,41</t>
+          <t>-0,69; 11,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 14,67</t>
+          <t>2,3; 14,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 14,04</t>
+          <t>3,7; 13,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 9,42</t>
+          <t>1,49; 9,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 61,1</t>
+          <t>-2,94; 65,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,7; 86,32</t>
+          <t>8,62; 81,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,1; 133,01</t>
+          <t>25,54; 134,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 59,55</t>
+          <t>7,05; 57,08</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,7; 16,21</t>
+          <t>3,11; 15,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,96; 19,45</t>
+          <t>6,19; 19,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 13,53</t>
+          <t>2,02; 13,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,18; 66,1</t>
+          <t>3,8; 64,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,39; 111,35</t>
+          <t>15,52; 108,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,75; 154,09</t>
+          <t>31,5; 157,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,39; 112,88</t>
+          <t>11,32; 118,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,34; 480,05</t>
+          <t>23,74; 474,22</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 7,36</t>
+          <t>-7,9; 6,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 21,34</t>
+          <t>4,93; 20,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 15,64</t>
+          <t>2,02; 16,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 13,62</t>
+          <t>3,64; 13,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 38,18</t>
+          <t>-25,98; 33,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,9; 118,52</t>
+          <t>16,86; 108,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,62; 99,67</t>
+          <t>9,51; 104,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,18; 75,62</t>
+          <t>15,4; 77,72</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,36</t>
+          <t>3,61; 7,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,25</t>
+          <t>8,18; 12,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,78</t>
+          <t>3,45; 6,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,56; 24,1</t>
+          <t>5,59; 25,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,08; 46,52</t>
+          <t>19,77; 45,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,0; 82,55</t>
+          <t>48,25; 80,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,82; 61,81</t>
+          <t>27,82; 62,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,75; 215,85</t>
+          <t>42,47; 225,35</t>
         </is>
       </c>
     </row>
